--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaby Go\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DE5ECC-B753-4C4F-8EF0-1FF87AB8F3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33DA1FDB-038D-4659-81E9-915F34D7390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
@@ -41,38 +41,38 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
+    <t>TIEMPOS DE EJECUCIÓN INSERTION SORT[ms]</t>
+  </si>
+  <si>
+    <t>TIEMPOS DE EJECUCIÓN SHELL SORT[ms]</t>
+  </si>
+  <si>
     <t>Porcentaje de la muestra [pct]</t>
   </si>
   <si>
     <t>Tamaño de la muestra (ARRAY_LIST)</t>
   </si>
   <si>
-    <t>Tamaño de la muestra (LINKED_LIST)</t>
+    <t>Array List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
   </si>
   <si>
     <t>Tamaño de la muestra (especificar array o linked)</t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN INSERTION SORT[ms]</t>
-  </si>
-  <si>
-    <t>Linked List</t>
-  </si>
-  <si>
-    <t>Array List</t>
-  </si>
-  <si>
     <t>TIEMPOS DE EJECUCIÓN SELECTION SORT[ms]</t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN SHELL SORT[ms]</t>
+    <t>Tamaño de la muestra (LINKED_LIST)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +123,32 @@
       <color theme="0"/>
       <name val="Dax-Regular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -234,17 +264,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -292,11 +311,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,9 +372,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,9 +388,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,9 +396,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,8 +406,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,9 +454,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,23 +466,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <font>
         <b/>
@@ -418,80 +503,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -517,6 +538,11 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -590,6 +616,34 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -729,7 +783,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -933,6 +987,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>404.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900.03700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2460.1390000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6218.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9631.43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1070,6 +1148,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1880.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15237.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127330.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>429890.01</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1411,7 +1504,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1618,6 +1711,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>476.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1022.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2769.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7179.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11555.76</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1755,6 +1872,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3468.4450000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28957.677</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2096,7 +2222,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2300,6 +2426,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1839999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.375999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.569000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2437,6 +2587,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1470.299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69390.12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4486,7 +4648,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4519,7 +4681,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4552,7 +4714,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -4581,8 +4743,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:D10" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4590,19 +4756,19 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Array List" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Linked List" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Array List"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Linked List" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:D21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:D21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A13:D21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4610,12 +4776,12 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="1">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Array List" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Linked List" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Array List"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Linked List" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4920,387 +5086,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="12" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="3" customWidth="1"/>
+    <col min="6" max="12" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42.5" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="33" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B3" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14">
+      <c r="C3" s="19">
+        <v>1.84</v>
+      </c>
+      <c r="D3" s="23">
+        <v>10.51</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="19">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I3" s="38">
+        <v>1.1679999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>0.05</v>
       </c>
       <c r="B4" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8">
+      <c r="C4" s="20">
+        <v>47.481999999999999</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1880.81</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
         <v>0.05</v>
       </c>
       <c r="G4" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="20">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="I4" s="37">
+        <v>229.76</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>0.1</v>
       </c>
       <c r="B5" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14">
+      <c r="C5" s="21">
+        <v>135.316</v>
+      </c>
+      <c r="D5" s="25">
+        <v>15237.11</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12">
         <v>0.1</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="21">
+        <v>9.1839999999999993</v>
+      </c>
+      <c r="I5" s="38">
+        <v>1470.299</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>0.2</v>
       </c>
       <c r="B6" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="8">
+      <c r="C6" s="20">
+        <v>404.43299999999999</v>
+      </c>
+      <c r="D6" s="24">
+        <v>127330.51</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7">
         <v>0.2</v>
       </c>
       <c r="G6" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="20">
+        <v>17.038</v>
+      </c>
+      <c r="I6" s="37">
+        <v>69390.12</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>0.3</v>
       </c>
       <c r="B7" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14">
+      <c r="C7" s="21">
+        <v>900.03700000000003</v>
+      </c>
+      <c r="D7" s="26">
+        <v>429890.01</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12">
         <v>0.3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="21">
+        <v>27.542000000000002</v>
+      </c>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>0.5</v>
       </c>
       <c r="B8" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="8">
+      <c r="C8" s="20">
+        <v>2460.1390000000001</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7">
         <v>0.5</v>
       </c>
       <c r="G8" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="20">
+        <v>43.375999999999998</v>
+      </c>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>0.8</v>
       </c>
       <c r="B9" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
+      <c r="C9" s="21">
+        <v>6218.5050000000001</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12">
         <v>0.8</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="21">
+        <v>62.439</v>
+      </c>
+      <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1">
-      <c r="A10" s="10">
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10">
+      <c r="C10" s="22">
+        <v>9631.43</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="22">
+        <v>81.569000000000003</v>
+      </c>
+      <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" ht="16" thickBot="1">
+    <row r="11" spans="1:9" ht="15" thickBot="1">
       <c r="E11"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="32">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="28">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B14" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="19">
+        <v>1.45</v>
+      </c>
+      <c r="D14" s="40">
+        <v>3.28</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>0.05</v>
       </c>
       <c r="B15" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
+      <c r="C15" s="20">
+        <v>59.68</v>
+      </c>
+      <c r="D15" s="40">
+        <v>3468.4450000000002</v>
+      </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>0.1</v>
       </c>
       <c r="B16" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="21">
+        <v>117.49</v>
+      </c>
+      <c r="D16" s="41">
+        <v>28957.677</v>
+      </c>
+      <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
         <v>0.2</v>
       </c>
       <c r="B17" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
+      <c r="C17" s="20">
+        <v>476.73</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5">
+      <c r="A18" s="7">
         <v>0.3</v>
       </c>
       <c r="B18" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="21">
+        <v>1022.43</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="8">
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <v>0.5</v>
       </c>
       <c r="B19" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="20">
+        <v>2769.03</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="8">
+    <row r="20" spans="1:5">
+      <c r="A20" s="7">
         <v>0.8</v>
       </c>
       <c r="B20" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
+      <c r="C20" s="21">
+        <v>7179.56</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
+      <c r="C21" s="22">
+        <v>11555.76</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5319,32 +5522,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e7eefc5f66e7d51449543297ddde059">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df8efc3b1b447b14ec56bc155bd746d7" ns2:_="" ns3:_="">
-    <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <xsd:import namespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F0D896A9B2F9414CBC00649D2AA1D38E" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bdbd60e62df9d8bd016ff6882a23342d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="235c53f0-256a-4aa3-80cb-37f34e250d9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="800f5a58c78245dc3222defa75b0862e" ns3:_="">
+    <xsd:import namespace="235c53f0-256a-4aa3-80cb-37f34e250d9e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5352,32 +5548,42 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="164883f8-7691-4ecf-b54a-664c0d0edefe" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="235c53f0-256a-4aa3-80cb-37f34e250d9e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
@@ -5387,85 +5593,15 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a38e7027-190f-4f90-8839-9f8250567d86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{26816d37-b675-4589-8225-e6a38877c704}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5477,8 +5613,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5570,112 +5706,7 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_activity xmlns="235c53f0-256a-4aa3-80cb-37f34e250d9e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -5690,14 +5721,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEEE7F2-DD9A-42EF-8F73-A92FC7ED8D52}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8680663-C7B4-4CBA-9037-A635B5D4F2EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="235c53f0-256a-4aa3-80cb-37f34e250d9e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5711,16 +5741,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="235c53f0-256a-4aa3-80cb-37f34e250d9e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/g_gomezh2_uniandes_edu_co/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DE5ECC-B753-4C4F-8EF0-1FF87AB8F3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AC5694-1890-4AE4-B369-AFA179897EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
@@ -41,38 +41,38 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
+    <t>TIEMPOS DE EJECUCIÓN INSERTION SORT[ms]</t>
+  </si>
+  <si>
+    <t>TIEMPOS DE EJECUCIÓN SHELL SORT[ms]</t>
+  </si>
+  <si>
     <t>Porcentaje de la muestra [pct]</t>
   </si>
   <si>
     <t>Tamaño de la muestra (ARRAY_LIST)</t>
   </si>
   <si>
-    <t>Tamaño de la muestra (LINKED_LIST)</t>
+    <t>Array List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
   </si>
   <si>
     <t>Tamaño de la muestra (especificar array o linked)</t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN INSERTION SORT[ms]</t>
-  </si>
-  <si>
-    <t>Linked List</t>
-  </si>
-  <si>
-    <t>Array List</t>
-  </si>
-  <si>
     <t>TIEMPOS DE EJECUCIÓN SELECTION SORT[ms]</t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN SHELL SORT[ms]</t>
+    <t>Tamaño de la muestra (LINKED_LIST)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +123,31 @@
       <color theme="0"/>
       <name val="Dax-Regular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +178,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -234,17 +263,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -292,11 +310,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,9 +371,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,9 +387,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,9 +395,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,7 +405,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,9 +462,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,23 +474,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <font>
         <b/>
@@ -418,80 +496,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -517,6 +531,11 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -590,6 +609,34 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -729,7 +776,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -933,6 +980,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>404.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900.03700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2460.1390000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6218.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9631.43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1070,6 +1141,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1880.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15237.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127330.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>429890.01</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1411,7 +1497,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1618,6 +1704,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>476.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1022.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2769.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7179.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11555.76</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1755,6 +1865,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3468.4450000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28957.677</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2096,7 +2215,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2300,6 +2419,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1839999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.375999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.569000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2437,6 +2580,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1470.299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69390.12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4449,7 +4604,7 @@
     <tabColor rgb="FFC1F8F3"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4486,7 +4641,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4519,7 +4674,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4552,7 +4707,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -4582,7 +4737,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:D10" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4590,19 +4745,19 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Array List" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Linked List" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Array List"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Linked List" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:D21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:D21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A13:D21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4610,21 +4765,21 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="1">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Array List" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Linked List" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Array List"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Linked List" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4662,7 +4817,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4768,7 +4923,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4910,7 +5065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4918,390 +5073,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="12" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
+    <col min="6" max="12" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42.6" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="33" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A3" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B3" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14">
+      <c r="C3" s="19">
+        <v>1.84</v>
+      </c>
+      <c r="D3" s="23">
+        <v>10.51</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="19">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I3" s="29">
+        <v>1.1679999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A4" s="7">
         <v>0.05</v>
       </c>
       <c r="B4" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8">
+      <c r="C4" s="20">
+        <v>47.481999999999999</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1880.81</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
         <v>0.05</v>
       </c>
       <c r="G4" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="20">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="I4" s="28">
+        <v>229.76</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8">
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="7">
         <v>0.1</v>
       </c>
       <c r="B5" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14">
+      <c r="C5" s="21">
+        <v>135.316</v>
+      </c>
+      <c r="D5" s="25">
+        <v>15237.11</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12">
         <v>0.1</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="21">
+        <v>9.1839999999999993</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1470.299</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8">
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="7">
         <v>0.2</v>
       </c>
       <c r="B6" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="8">
+      <c r="C6" s="20">
+        <v>404.43299999999999</v>
+      </c>
+      <c r="D6" s="24">
+        <v>127330.51</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7">
         <v>0.2</v>
       </c>
       <c r="G6" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="20">
+        <v>17.038</v>
+      </c>
+      <c r="I6" s="28">
+        <v>69390.12</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8">
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="7">
         <v>0.3</v>
       </c>
       <c r="B7" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14">
+      <c r="C7" s="21">
+        <v>900.03700000000003</v>
+      </c>
+      <c r="D7" s="26">
+        <v>429890.01</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12">
         <v>0.3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="21">
+        <v>27.542000000000002</v>
+      </c>
+      <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8">
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="7">
         <v>0.5</v>
       </c>
       <c r="B8" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="8">
+      <c r="C8" s="20">
+        <v>2460.1390000000001</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7">
         <v>0.5</v>
       </c>
       <c r="G8" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="20">
+        <v>43.375999999999998</v>
+      </c>
+      <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8">
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="7">
         <v>0.8</v>
       </c>
       <c r="B9" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
+      <c r="C9" s="21">
+        <v>6218.5050000000001</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12">
         <v>0.8</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="21">
+        <v>62.439</v>
+      </c>
+      <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1">
-      <c r="A10" s="10">
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10">
+      <c r="C10" s="22">
+        <v>9631.43</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="22">
+        <v>81.569000000000003</v>
+      </c>
+      <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" ht="16" thickBot="1">
+    <row r="11" spans="1:9" ht="15">
       <c r="E11"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="32">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="33">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1">
-      <c r="A14" s="8">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B14" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="19">
+        <v>1.45</v>
+      </c>
+      <c r="D14" s="30">
+        <v>3.28</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1">
-      <c r="A15" s="8">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A15" s="7">
         <v>0.05</v>
       </c>
       <c r="B15" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
+      <c r="C15" s="20">
+        <v>59.68</v>
+      </c>
+      <c r="D15" s="30">
+        <v>3468.4450000000002</v>
+      </c>
+      <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8">
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="7">
         <v>0.1</v>
       </c>
       <c r="B16" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="21">
+        <v>117.49</v>
+      </c>
+      <c r="D16" s="30">
+        <v>28957.677</v>
+      </c>
+      <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8">
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="7">
         <v>0.2</v>
       </c>
       <c r="B17" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
+      <c r="C17" s="20">
+        <v>476.73</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="7">
         <v>0.3</v>
       </c>
       <c r="B18" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="21">
+        <v>1022.43</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="8">
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="7">
         <v>0.5</v>
       </c>
       <c r="B19" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="20">
+        <v>2769.03</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="8">
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="7">
         <v>0.8</v>
       </c>
       <c r="B20" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
+      <c r="C20" s="21">
+        <v>7179.56</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
+      <c r="C21" s="22">
+        <v>11555.76</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="8"/>
     </row>
+    <row r="22" spans="1:5" ht="15"/>
+    <row r="23" spans="1:5" ht="15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -5319,32 +5513,42 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e7eefc5f66e7d51449543297ddde059">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df8efc3b1b447b14ec56bc155bd746d7" ns2:_="" ns3:_="">
-    <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <xsd:import namespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="235c53f0-256a-4aa3-80cb-37f34e250d9e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F0D896A9B2F9414CBC00649D2AA1D38E" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bdbd60e62df9d8bd016ff6882a23342d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="235c53f0-256a-4aa3-80cb-37f34e250d9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="800f5a58c78245dc3222defa75b0862e" ns3:_="">
+    <xsd:import namespace="235c53f0-256a-4aa3-80cb-37f34e250d9e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5352,32 +5556,42 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="164883f8-7691-4ecf-b54a-664c0d0edefe" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="235c53f0-256a-4aa3-80cb-37f34e250d9e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
@@ -5387,85 +5601,15 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a38e7027-190f-4f90-8839-9f8250567d86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{26816d37-b675-4589-8225-e6a38877c704}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5477,8 +5621,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5567,168 +5711,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEEE7F2-DD9A-42EF-8F73-A92FC7ED8D52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8680663-C7B4-4CBA-9037-A635B5D4F2EE}"/>
 </file>